--- a/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,14</t>
+          <t>-1,21; 9,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 11,2</t>
+          <t>-0,67; 10,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,63; 68,26</t>
+          <t>52,4; 68,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 8,73</t>
+          <t>-2,6; 10,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 1,53</t>
+          <t>-10,67; 1,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,53; 55,55</t>
+          <t>41,62; 56,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,73</t>
+          <t>-0,6; 7,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,76</t>
+          <t>-3,62; 4,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,96; 59,6</t>
+          <t>49,91; 60,09</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 50,73</t>
+          <t>-5,34; 52,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 59,71</t>
+          <t>-3,04; 56,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>231,69; 384,83</t>
+          <t>220,69; 380,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 29,09</t>
+          <t>-7,44; 35,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 5,22</t>
+          <t>-30,2; 6,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>114,62; 188,34</t>
+          <t>115,15; 189,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 31,53</t>
+          <t>-2,36; 31,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 18,9</t>
+          <t>-12,57; 18,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>169,98; 239,33</t>
+          <t>171,97; 241,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,32</t>
+          <t>-0,0; 9,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 2,96</t>
+          <t>-5,98; 3,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,95; 62,77</t>
+          <t>52,09; 62,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 6,1</t>
+          <t>-5,57; 5,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 0,48</t>
+          <t>-9,59; 1,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,27; 45,3</t>
+          <t>30,56; 45,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 6,41</t>
+          <t>-1,5; 6,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 1,25</t>
+          <t>-6,44; 1,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,99; 53,34</t>
+          <t>43,6; 53,27</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 38,25</t>
+          <t>-0,14; 37,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 12,88</t>
+          <t>-20,98; 15,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>176,49; 263,27</t>
+          <t>178,66; 263,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 17,05</t>
+          <t>-13,21; 16,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 1,43</t>
+          <t>-23,61; 2,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,9; 127,58</t>
+          <t>76,98; 126,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 21,47</t>
+          <t>-4,25; 20,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 4,3</t>
+          <t>-19,09; 3,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>132,17; 179,72</t>
+          <t>129,08; 177,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 6,55</t>
+          <t>-3,89; 6,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 2,66</t>
+          <t>-7,73; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,76; 54,87</t>
+          <t>44,71; 54,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 6,2</t>
+          <t>-4,38; 6,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,76</t>
+          <t>-8,66; 1,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,84; 38,71</t>
+          <t>28,26; 38,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 4,54</t>
+          <t>-2,9; 4,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 0,79</t>
+          <t>-6,82; 0,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,69; 44,92</t>
+          <t>37,45; 44,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 21,85</t>
+          <t>-11,46; 23,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 9,33</t>
+          <t>-22,14; 8,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>123,45; 184,81</t>
+          <t>123,6; 186,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 14,8</t>
+          <t>-9,37; 15,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 4,26</t>
+          <t>-18,63; 4,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,41; 93,46</t>
+          <t>60,04; 94,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 12,54</t>
+          <t>-7,17; 13,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 2,14</t>
+          <t>-16,66; 1,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,62; 123,98</t>
+          <t>90,52; 122,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 4,21</t>
+          <t>-7,61; 5,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,85</t>
+          <t>-4,85; 7,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,77; 40,69</t>
+          <t>29,36; 41,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 7,76</t>
+          <t>-4,71; 7,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 4,17</t>
+          <t>-8,05; 4,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 24,86</t>
+          <t>13,82; 24,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 4,02</t>
+          <t>-4,32; 4,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 4,14</t>
+          <t>-4,12; 4,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,1; 31,1</t>
+          <t>23,31; 31,53</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 9,83</t>
+          <t>-16,0; 12,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 16,7</t>
+          <t>-9,86; 17,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,93; 99,78</t>
+          <t>60,62; 101,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 16,11</t>
+          <t>-8,41; 15,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 8,41</t>
+          <t>-14,33; 9,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,52; 50,21</t>
+          <t>23,83; 49,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 8,58</t>
+          <t>-8,54; 8,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 8,76</t>
+          <t>-8,07; 8,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,38; 66,47</t>
+          <t>45,37; 67,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 4,71</t>
+          <t>-9,15; 5,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 3,28</t>
+          <t>-11,5; 2,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 14,29</t>
+          <t>2,49; 14,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 7,51</t>
+          <t>-6,24; 7,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,46; 16,04</t>
+          <t>2,81; 16,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,8; 13,51</t>
+          <t>2,09; 13,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 4,44</t>
+          <t>-5,31; 4,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,64</t>
+          <t>-1,81; 7,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,95</t>
+          <t>3,68; 12,18</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 8,44</t>
+          <t>-14,84; 9,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 6,0</t>
+          <t>-18,42; 4,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4,25; 25,48</t>
+          <t>3,86; 25,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 14,48</t>
+          <t>-10,89; 15,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,57; 31,34</t>
+          <t>4,82; 31,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,98; 26,59</t>
+          <t>3,55; 26,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 8,06</t>
+          <t>-8,9; 8,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 14,1</t>
+          <t>-3,05; 14,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,24; 22,08</t>
+          <t>6,22; 22,36</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 11,99</t>
+          <t>0,49; 12,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,98; 14,36</t>
+          <t>2,93; 14,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,8; 13,38</t>
+          <t>2,86; 13,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,69</t>
+          <t>-6,23; 2,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 7,24</t>
+          <t>-2,62; 7,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 7,84</t>
+          <t>-9,73; 8,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,5</t>
+          <t>-2,45; 5,54</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,32; 8,66</t>
+          <t>1,01; 8,67</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 9,28</t>
+          <t>-2,64; 9,39</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,16; 23,9</t>
+          <t>0,83; 24,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,36; 28,91</t>
+          <t>5,44; 28,61</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>4,78; 27,03</t>
+          <t>5,11; 26,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 5,71</t>
+          <t>-8,88; 4,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 11,18</t>
+          <t>-3,72; 11,31</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 12,67</t>
+          <t>-14,07; 14,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 9,33</t>
+          <t>-3,75; 9,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2,08; 14,48</t>
+          <t>1,53; 14,59</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 15,54</t>
+          <t>-4,25; 15,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,97</t>
+          <t>0,98; 5,75</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,62</t>
+          <t>0,83; 5,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>35,07; 39,83</t>
+          <t>35,23; 39,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,49</t>
+          <t>-1,2; 3,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,31</t>
+          <t>-1,33; 3,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,77; 25,51</t>
+          <t>19,75; 25,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,93</t>
+          <t>0,56; 3,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,82</t>
+          <t>0,4; 4,04</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>28,04; 31,63</t>
+          <t>27,95; 31,69</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2,42; 16,38</t>
+          <t>2,57; 15,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1,32; 15,3</t>
+          <t>2,27; 15,08</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>89,15; 109,05</t>
+          <t>89,68; 109,73</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,4</t>
+          <t>-2,37; 7,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,92</t>
+          <t>-2,64; 7,06</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,4; 53,65</t>
+          <t>39,06; 53,13</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,19</t>
+          <t>1,21; 9,24</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,0</t>
+          <t>0,87; 9,43</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>62,92; 74,0</t>
+          <t>62,54; 74,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 9,65</t>
+          <t>-1,15; 9,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 10,54</t>
+          <t>-0,45; 10,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,4; 68,19</t>
+          <t>53,33; 67,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 10,31</t>
+          <t>-2,6; 10,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 1,85</t>
+          <t>-10,74; 1,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,62; 56,0</t>
+          <t>41,16; 55,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,96</t>
+          <t>-0,9; 7,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,64</t>
+          <t>-3,97; 4,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,91; 60,09</t>
+          <t>49,74; 59,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 52,37</t>
+          <t>-5,27; 51,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 56,0</t>
+          <t>-1,92; 56,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>220,69; 380,34</t>
+          <t>225,82; 384,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 35,22</t>
+          <t>-7,21; 34,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 6,31</t>
+          <t>-30,04; 5,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>115,15; 189,1</t>
+          <t>114,72; 188,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 31,92</t>
+          <t>-3,27; 30,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 18,63</t>
+          <t>-14,05; 16,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>171,97; 241,83</t>
+          <t>170,74; 239,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 9,12</t>
+          <t>-0,38; 9,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,66</t>
+          <t>-6,3; 3,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,09; 62,52</t>
+          <t>52,28; 62,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 5,78</t>
+          <t>-6,25; 5,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 1,14</t>
+          <t>-10,21; 0,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,56; 45,13</t>
+          <t>30,73; 45,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 6,12</t>
+          <t>-1,26; 6,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,14</t>
+          <t>-6,27; 1,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,6; 53,27</t>
+          <t>43,46; 52,95</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 37,77</t>
+          <t>-1,47; 38,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 15,13</t>
+          <t>-21,95; 15,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>178,66; 263,48</t>
+          <t>179,03; 263,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 16,06</t>
+          <t>-14,64; 14,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 2,81</t>
+          <t>-24,8; 1,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,98; 126,89</t>
+          <t>74,74; 126,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 20,37</t>
+          <t>-3,75; 20,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 3,67</t>
+          <t>-18,57; 4,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>129,08; 177,09</t>
+          <t>128,3; 176,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,91</t>
+          <t>-3,5; 7,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,72</t>
+          <t>-8,08; 2,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,71; 54,61</t>
+          <t>45,03; 54,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 6,38</t>
+          <t>-4,34; 6,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 1,94</t>
+          <t>-8,57; 2,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,26; 38,51</t>
+          <t>27,46; 38,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,99</t>
+          <t>-2,32; 4,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,66</t>
+          <t>-6,94; 0,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,45; 44,62</t>
+          <t>37,76; 45,05</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 23,05</t>
+          <t>-9,93; 23,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 8,92</t>
+          <t>-22,44; 8,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>123,6; 186,54</t>
+          <t>124,9; 184,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 15,39</t>
+          <t>-9,29; 14,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 4,54</t>
+          <t>-18,29; 5,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,04; 94,78</t>
+          <t>56,95; 91,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 13,44</t>
+          <t>-5,62; 13,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 1,89</t>
+          <t>-16,93; 2,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,52; 122,9</t>
+          <t>91,08; 123,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 5,05</t>
+          <t>-8,16; 4,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 7,34</t>
+          <t>-4,42; 7,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,36; 41,19</t>
+          <t>29,18; 40,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 7,78</t>
+          <t>-5,2; 7,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 4,84</t>
+          <t>-7,79; 4,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,82; 24,66</t>
+          <t>14,41; 25,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 4,23</t>
+          <t>-4,77; 3,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 4,05</t>
+          <t>-4,65; 3,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,31; 31,53</t>
+          <t>22,99; 31,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 12,12</t>
+          <t>-16,69; 10,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 17,66</t>
+          <t>-9,19; 18,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,62; 101,1</t>
+          <t>58,9; 97,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 15,72</t>
+          <t>-9,27; 14,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 9,84</t>
+          <t>-14,01; 8,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,83; 49,93</t>
+          <t>25,47; 52,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 8,92</t>
+          <t>-9,2; 8,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 8,53</t>
+          <t>-8,94; 8,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,37; 67,91</t>
+          <t>44,16; 68,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 5,28</t>
+          <t>-10,49; 4,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 2,38</t>
+          <t>-11,62; 2,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 14,39</t>
+          <t>2,21; 14,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 7,75</t>
+          <t>-5,52; 7,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,81; 16,2</t>
+          <t>3,06; 15,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,09; 13,51</t>
+          <t>2,03; 13,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 4,48</t>
+          <t>-5,59; 4,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 7,89</t>
+          <t>-1,77; 8,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,18</t>
+          <t>3,94; 12,26</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 9,24</t>
+          <t>-16,52; 7,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 4,33</t>
+          <t>-18,22; 4,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,86; 25,54</t>
+          <t>3,47; 27,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 15,49</t>
+          <t>-9,38; 15,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,82; 31,82</t>
+          <t>5,39; 32,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,55; 26,28</t>
+          <t>3,5; 26,34</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 8,2</t>
+          <t>-9,54; 7,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 14,46</t>
+          <t>-2,93; 15,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,22; 22,36</t>
+          <t>6,5; 22,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,49; 12,54</t>
+          <t>0,28; 12,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,93; 14,3</t>
+          <t>3,27; 14,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,86; 13,33</t>
+          <t>2,88; 13,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 2,95</t>
+          <t>-7,21; 3,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,37</t>
+          <t>-2,69; 7,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 8,96</t>
+          <t>-9,82; 8,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,54</t>
+          <t>-1,96; 5,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,01; 8,67</t>
+          <t>1,49; 9,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 9,39</t>
+          <t>-2,42; 10,23</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,83; 24,59</t>
+          <t>0,3; 23,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,44; 28,61</t>
+          <t>5,76; 28,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>5,11; 26,72</t>
+          <t>5,09; 27,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 4,55</t>
+          <t>-10,33; 5,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 11,31</t>
+          <t>-3,91; 11,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 14,25</t>
+          <t>-14,24; 12,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 9,4</t>
+          <t>-3,12; 9,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,53; 14,59</t>
+          <t>2,3; 15,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 15,24</t>
+          <t>-3,87; 17,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,75</t>
+          <t>0,82; 5,71</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,43</t>
+          <t>0,8; 5,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>35,23; 39,82</t>
+          <t>35,13; 39,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,6</t>
+          <t>-1,12; 3,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,37</t>
+          <t>-1,4; 3,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,5</t>
+          <t>19,9; 25,27</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,94</t>
+          <t>0,51; 3,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,04</t>
+          <t>0,39; 3,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>27,95; 31,69</t>
+          <t>27,81; 31,62</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2,57; 15,78</t>
+          <t>2,06; 15,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2,27; 15,08</t>
+          <t>2,2; 15,1</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>89,68; 109,73</t>
+          <t>89,77; 109,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 7,52</t>
+          <t>-2,23; 7,71</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,06</t>
+          <t>-2,77; 7,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,06; 53,13</t>
+          <t>39,25; 52,63</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,21; 9,24</t>
+          <t>1,15; 9,26</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,43</t>
+          <t>0,93; 8,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>62,54; 74,09</t>
+          <t>62,32; 74,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 9,52</t>
+          <t>-1,32; 9,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 10,5</t>
+          <t>-0,51; 11,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,33; 67,46</t>
+          <t>53,63; 68,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 10,21</t>
+          <t>-3,35; 8,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 1,6</t>
+          <t>-10,61; 1,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,16; 55,42</t>
+          <t>41,53; 55,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,84</t>
+          <t>-0,36; 7,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,25</t>
+          <t>-3,87; 4,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,74; 59,66</t>
+          <t>48,96; 59,6</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 51,77</t>
+          <t>-5,6; 50,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 56,7</t>
+          <t>-2,35; 59,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>225,82; 384,11</t>
+          <t>231,69; 384,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 34,55</t>
+          <t>-8,77; 29,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 5,49</t>
+          <t>-29,88; 5,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>114,72; 188,6</t>
+          <t>114,62; 188,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 30,92</t>
+          <t>-1,34; 31,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 16,91</t>
+          <t>-13,28; 18,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>170,74; 239,48</t>
+          <t>169,98; 239,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 9,38</t>
+          <t>-0,61; 9,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 3,68</t>
+          <t>-6,46; 2,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,28; 62,64</t>
+          <t>51,95; 62,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 5,42</t>
+          <t>-5,42; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 0,7</t>
+          <t>-9,99; 0,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,73; 45,18</t>
+          <t>30,27; 45,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,26</t>
+          <t>-0,97; 6,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 1,22</t>
+          <t>-5,92; 1,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,46; 52,95</t>
+          <t>43,99; 53,34</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 38,63</t>
+          <t>-2,3; 38,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 15,02</t>
+          <t>-22,22; 12,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>179,03; 263,38</t>
+          <t>176,49; 263,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 14,89</t>
+          <t>-13,3; 17,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 1,84</t>
+          <t>-24,33; 1,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,74; 126,49</t>
+          <t>75,9; 127,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 20,69</t>
+          <t>-2,92; 21,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 4,15</t>
+          <t>-17,43; 4,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>128,3; 176,43</t>
+          <t>132,17; 179,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,11</t>
+          <t>-3,74; 6,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 2,52</t>
+          <t>-8,11; 2,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,03; 54,75</t>
+          <t>44,76; 54,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 6,03</t>
+          <t>-4,41; 6,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 2,46</t>
+          <t>-8,53; 1,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,46; 38,24</t>
+          <t>27,84; 38,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,85</t>
+          <t>-2,63; 4,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,93</t>
+          <t>-6,88; 0,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,76; 45,05</t>
+          <t>37,69; 44,92</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 23,65</t>
+          <t>-10,67; 21,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 8,45</t>
+          <t>-22,84; 9,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>124,9; 184,98</t>
+          <t>123,45; 184,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 14,4</t>
+          <t>-9,45; 14,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 5,24</t>
+          <t>-18,01; 4,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,95; 91,67</t>
+          <t>58,41; 93,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 13,24</t>
+          <t>-6,32; 12,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 2,69</t>
+          <t>-16,87; 2,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,08; 123,44</t>
+          <t>91,62; 123,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 4,64</t>
+          <t>-7,64; 4,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 7,62</t>
+          <t>-4,75; 6,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,18; 40,92</t>
+          <t>28,77; 40,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 7,29</t>
+          <t>-4,97; 7,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 4,49</t>
+          <t>-7,55; 4,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 25,48</t>
+          <t>14,41; 24,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,83</t>
+          <t>-4,62; 4,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,95</t>
+          <t>-4,64; 4,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,99; 31,85</t>
+          <t>23,1; 31,1</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 10,94</t>
+          <t>-15,72; 9,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 18,13</t>
+          <t>-9,82; 16,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,9; 97,38</t>
+          <t>58,93; 99,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 14,89</t>
+          <t>-8,96; 16,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 8,89</t>
+          <t>-13,36; 8,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,47; 52,29</t>
+          <t>25,52; 50,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 8,0</t>
+          <t>-9,0; 8,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 8,56</t>
+          <t>-8,96; 8,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,16; 68,33</t>
+          <t>44,38; 66,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 4,29</t>
+          <t>-9,44; 4,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 2,65</t>
+          <t>-10,94; 3,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,21; 14,82</t>
+          <t>2,64; 14,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 7,78</t>
+          <t>-6,76; 7,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,06; 15,88</t>
+          <t>2,46; 16,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,03; 13,37</t>
+          <t>1,8; 13,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,33</t>
+          <t>-5,66; 4,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,19</t>
+          <t>-1,98; 7,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,94; 12,26</t>
+          <t>3,69; 11,95</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 7,65</t>
+          <t>-15,11; 8,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 4,7</t>
+          <t>-17,47; 6,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,47; 27,0</t>
+          <t>4,25; 25,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 15,35</t>
+          <t>-11,59; 14,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,39; 32,13</t>
+          <t>4,57; 31,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,5; 26,34</t>
+          <t>2,98; 26,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 7,9</t>
+          <t>-9,5; 8,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 15,13</t>
+          <t>-3,28; 14,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,5; 22,41</t>
+          <t>6,24; 22,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,28; 12,16</t>
+          <t>0,1; 11,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,27; 14,29</t>
+          <t>2,98; 14,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,88; 13,84</t>
+          <t>2,8; 13,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 3,44</t>
+          <t>-6,87; 3,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,31</t>
+          <t>-2,9; 7,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 8,41</t>
+          <t>-9,83; 7,84</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 5,67</t>
+          <t>-2,02; 5,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,01</t>
+          <t>1,32; 8,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 10,23</t>
+          <t>-2,62; 9,28</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,3; 23,53</t>
+          <t>0,16; 23,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,76; 28,36</t>
+          <t>5,36; 28,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>5,09; 27,91</t>
+          <t>4,78; 27,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 5,22</t>
+          <t>-9,96; 5,71</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 11,34</t>
+          <t>-4,15; 11,18</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 12,94</t>
+          <t>-14,21; 12,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 9,51</t>
+          <t>-3,18; 9,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2,3; 15,05</t>
+          <t>2,08; 14,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 17,29</t>
+          <t>-4,17; 15,54</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,71</t>
+          <t>0,93; 5,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,52</t>
+          <t>0,5; 5,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>35,13; 39,83</t>
+          <t>35,07; 39,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,69</t>
+          <t>-1,32; 3,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,63</t>
+          <t>-1,64; 3,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,9; 25,27</t>
+          <t>19,77; 25,51</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,94</t>
+          <t>0,47; 3,93</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,76</t>
+          <t>0,4; 3,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>27,81; 31,62</t>
+          <t>28,04; 31,63</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,58</t>
+          <t>2,42; 16,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2,2; 15,1</t>
+          <t>1,32; 15,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>89,77; 109,18</t>
+          <t>89,15; 109,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 7,71</t>
+          <t>-2,61; 7,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,74</t>
+          <t>-3,22; 6,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,25; 52,63</t>
+          <t>39,4; 53,65</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,26</t>
+          <t>1,07; 9,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,83</t>
+          <t>0,94; 9,0</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>62,32; 74,46</t>
+          <t>62,92; 74,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,95</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,91</t>
+          <t>-11,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>55,09</t>
+          <t>-3,38</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,14</t>
+          <t>3,07; 14,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 11,2</t>
+          <t>1,18; 13,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,63; 68,26</t>
+          <t>-4,45; 13,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 8,73</t>
+          <t>-1,88; 10,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 1,53</t>
+          <t>-8,71; 3,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,53; 55,55</t>
+          <t>-19,27; -3,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,73</t>
+          <t>2,52; 11,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,76</t>
+          <t>-1,93; 7,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,96; 59,6</t>
+          <t>-9,23; 3,1</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>293,38%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,59%</t>
+          <t>-6,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>147,26%</t>
+          <t>-28,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>205,41%</t>
+          <t>-10,62%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 50,73</t>
+          <t>11,7; 63,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 59,71</t>
+          <t>4,43; 62,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>231,69; 384,83</t>
+          <t>-17,1; 59,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 29,09</t>
+          <t>-4,69; 28,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 5,22</t>
+          <t>-20,41; 9,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>114,62; 188,34</t>
+          <t>-46,27; -8,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 31,53</t>
+          <t>7,12; 39,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 18,9</t>
+          <t>-5,88; 24,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>169,98; 239,33</t>
+          <t>-28,7; 10,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,78</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,68</t>
+          <t>-20,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>49,01</t>
+          <t>-11,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,32</t>
+          <t>4,46; 14,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 2,96</t>
+          <t>-6,09; 4,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,95; 62,77</t>
+          <t>-8,76; 4,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 6,1</t>
+          <t>-1,39; 9,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 0,48</t>
+          <t>-8,94; 2,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,27; 45,3</t>
+          <t>-31,04; -14,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 6,41</t>
+          <t>3,67; 10,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 1,25</t>
+          <t>-4,98; 2,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,99; 53,34</t>
+          <t>-18,02; -5,96</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,72%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>218,16%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,77%</t>
+          <t>-6,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>101,99%</t>
+          <t>-46,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>152,25%</t>
+          <t>-29,75%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 38,25</t>
+          <t>13,69; 52,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 12,88</t>
+          <t>-18,39; 15,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>176,49; 263,27</t>
+          <t>-26,17; 16,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 17,05</t>
+          <t>-2,94; 24,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 1,43</t>
+          <t>-17,92; 5,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,9; 127,58</t>
+          <t>-67,32; -32,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 21,47</t>
+          <t>9,69; 30,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 4,3</t>
+          <t>-12,82; 8,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>132,17; 179,72</t>
+          <t>-46,39; -16,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50,18</t>
+          <t>-11,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,03</t>
+          <t>-26,48</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>41,26</t>
+          <t>-19,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 6,55</t>
+          <t>0,71; 11,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 2,66</t>
+          <t>-5,96; 5,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,76; 54,87</t>
+          <t>-17,75; -6,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 6,2</t>
+          <t>-3,17; 7,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,76</t>
+          <t>-10,77; -0,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,84; 38,71</t>
+          <t>-34,59; -21,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 4,54</t>
+          <t>0,11; 7,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 0,79</t>
+          <t>-7,5; 0,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,69; 44,92</t>
+          <t>-23,91; -15,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,42%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>153,84%</t>
+          <t>-32,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>-10,21%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-47,4%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>-7,41%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>74,09%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-8,04%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>106,25%</t>
+          <t>-41,65%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 21,85</t>
+          <t>1,86; 33,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 9,33</t>
+          <t>-15,27; 14,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>123,45; 184,81</t>
+          <t>-44,72; -18,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 14,8</t>
+          <t>-5,41; 13,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 4,26</t>
+          <t>-18,46; -1,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,41; 93,46</t>
+          <t>-60,36; -39,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 12,54</t>
+          <t>0,23; 17,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 2,14</t>
+          <t>-15,38; 1,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,62; 123,98</t>
+          <t>-49,89; -34,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>34,9</t>
+          <t>-22,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,71</t>
+          <t>-24,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27,26</t>
+          <t>-24,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 4,21</t>
+          <t>-4,64; 7,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,85</t>
+          <t>-1,57; 10,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,77; 40,69</t>
+          <t>-42,94; -10,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 7,76</t>
+          <t>1,06; 12,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 4,17</t>
+          <t>-10,56; 1,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 24,86</t>
+          <t>-31,85; -19,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 4,02</t>
+          <t>-0,13; 8,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 4,14</t>
+          <t>-4,3; 4,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,1; 31,1</t>
+          <t>-38,63; -16,85</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,46%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>77,29%</t>
+          <t>-44,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-7,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>-37,49%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>55,55%</t>
+          <t>-41,98%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 9,83</t>
+          <t>-8,67; 15,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 16,7</t>
+          <t>-2,84; 21,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,93; 99,78</t>
+          <t>-77,94; -21,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 16,11</t>
+          <t>1,54; 19,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 8,41</t>
+          <t>-15,05; 2,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,52; 50,21</t>
+          <t>-46,77; -30,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 8,58</t>
+          <t>-0,19; 14,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 8,76</t>
+          <t>-7,01; 7,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,38; 66,47</t>
+          <t>-64,22; -29,08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-9,92</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>-24,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>-25,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>-24,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 4,71</t>
+          <t>-5,63; 6,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 3,28</t>
+          <t>-15,48; -3,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 14,29</t>
+          <t>-30,1; -18,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 7,51</t>
+          <t>2,52; 12,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,46; 16,04</t>
+          <t>-2,31; 8,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,8; 13,51</t>
+          <t>-30,63; -20,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 4,44</t>
+          <t>0,39; 7,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,64</t>
+          <t>-7,67; 0,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,95</t>
+          <t>-28,35; -20,82</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,07%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-7,27%</t>
+          <t>-12,91%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>-31,27%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>-31,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>-31,42%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 8,44</t>
+          <t>-7,1; 8,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 6,0</t>
+          <t>-19,88; -4,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4,25; 25,48</t>
+          <t>-37,59; -24,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 14,48</t>
+          <t>3,08; 16,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,57; 31,34</t>
+          <t>-2,75; 10,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,98; 26,59</t>
+          <t>-36,65; -26,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 8,06</t>
+          <t>0,34; 10,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 14,1</t>
+          <t>-9,53; 0,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,24; 22,08</t>
+          <t>-35,31; -27,11</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>-26,56</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-15,78</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-18,84</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 11,99</t>
+          <t>7,98; 18,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,98; 14,36</t>
+          <t>2,8; 13,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,8; 13,38</t>
+          <t>-32,08; -19,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,69</t>
+          <t>-1,79; 5,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 7,24</t>
+          <t>-5,56; 2,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 7,84</t>
+          <t>-28,79; -0,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,5</t>
+          <t>3,67; 10,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,32; 8,66</t>
+          <t>-0,69; 6,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 9,28</t>
+          <t>-28,56; -2,64</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>-32,83%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-5,08%</t>
+          <t>-16,99%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>-21,57%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,16; 23,9</t>
+          <t>9,66; 23,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,36; 28,91</t>
+          <t>3,33; 17,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>4,78; 27,03</t>
+          <t>-38,62; -25,8</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 5,71</t>
+          <t>-1,88; 5,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 11,18</t>
+          <t>-5,9; 2,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 12,67</t>
+          <t>-30,71; -0,61</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 9,33</t>
+          <t>4,08; 11,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2,08; 14,48</t>
+          <t>-0,76; 7,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 15,54</t>
+          <t>-32,46; -2,98</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>37,53</t>
+          <t>-20,94</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>22,15</t>
+          <t>-19,43</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>29,62</t>
+          <t>-20,07</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,97</t>
+          <t>-1,93; 7,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,62</t>
+          <t>-3,32; 5,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>35,07; 39,83</t>
+          <t>-26,59; -14,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,49</t>
+          <t>-0,95; 4,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,31</t>
+          <t>-2,13; 4,27</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,77; 25,51</t>
+          <t>-22,82; -15,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,93</t>
+          <t>-0,5; 4,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,82</t>
+          <t>-1,67; 3,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>28,04; 31,63</t>
+          <t>-22,75; -16,7</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>-22,52%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>-20,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>-21,19%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2,42; 16,38</t>
+          <t>-2,02; 7,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1,32; 15,3</t>
+          <t>-3,47; 5,86</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>89,15; 109,05</t>
+          <t>-28,06; -16,28</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,4</t>
+          <t>-0,98; 5,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,92</t>
+          <t>-2,16; 4,57</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,4; 53,65</t>
+          <t>-23,54; -16,47</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,19</t>
+          <t>-0,52; 4,68</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,0</t>
+          <t>-1,73; 3,7</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>62,92; 74,0</t>
+          <t>-23,83; -17,73</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-10,03</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-15,92</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-12,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 9,89</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 6,46</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-19,79; -6,13</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 7,82</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 2,34</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-19,94; -6,5</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 8,06</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,68</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-17,11; -8,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-20,84%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-24,93%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-23,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>10,08; 21,02</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 13,8</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-40,43; -12,86</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 12,4</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 3,72</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-31,18; -10,23</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 14,57</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 6,67</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-30,42; -14,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 14,1</t>
+          <t>2,99; 15,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 13,75</t>
+          <t>0,88; 13,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 13,35</t>
+          <t>-4,39; 13,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 10,48</t>
+          <t>-1,64; 11,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 3,5</t>
+          <t>-9,08; 3,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -3,3</t>
+          <t>-18,63; -2,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 11,42</t>
+          <t>2,64; 11,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 7,09</t>
+          <t>-1,59; 7,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 3,1</t>
+          <t>-9,19; 3,02</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,7; 63,92</t>
+          <t>10,23; 70,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 62,58</t>
+          <t>3,95; 62,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 59,6</t>
+          <t>-16,97; 59,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 28,84</t>
+          <t>-4,0; 29,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 9,96</t>
+          <t>-21,02; 9,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,27; -8,61</t>
+          <t>-45,91; -6,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 39,03</t>
+          <t>8,06; 37,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 24,1</t>
+          <t>-4,66; 24,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 10,15</t>
+          <t>-27,56; 9,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,88</t>
+          <t>3,97; 14,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 4,19</t>
+          <t>-5,59; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 4,86</t>
+          <t>-8,48; 4,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 9,98</t>
+          <t>-1,29; 10,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 2,29</t>
+          <t>-8,65; 2,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,04; -14,21</t>
+          <t>-31,07; -13,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,95</t>
+          <t>3,42; 11,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 2,81</t>
+          <t>-4,82; 2,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,02; -5,96</t>
+          <t>-17,63; -6,18</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 52,61</t>
+          <t>11,47; 51,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 15,33</t>
+          <t>-16,43; 15,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 16,39</t>
+          <t>-26,64; 15,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 24,02</t>
+          <t>-2,74; 24,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 5,47</t>
+          <t>-18,54; 5,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,32; -32,97</t>
+          <t>-66,49; -32,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 30,7</t>
+          <t>8,75; 30,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 8,07</t>
+          <t>-12,5; 7,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,39; -16,59</t>
+          <t>-45,76; -17,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 11,3</t>
+          <t>0,82; 11,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 5,04</t>
+          <t>-5,57; 4,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -6,63</t>
+          <t>-17,23; -6,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 7,33</t>
+          <t>-3,04; 8,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,77; -0,73</t>
+          <t>-10,83; -0,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-34,59; -21,35</t>
+          <t>-34,46; -20,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 7,76</t>
+          <t>-0,53; 7,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 0,73</t>
+          <t>-7,38; 0,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,91; -15,43</t>
+          <t>-24,11; -15,57</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 33,08</t>
+          <t>1,44; 34,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 14,85</t>
+          <t>-14,12; 14,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,72; -18,71</t>
+          <t>-43,51; -17,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 13,97</t>
+          <t>-5,27; 15,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,46; -1,4</t>
+          <t>-18,56; -0,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,36; -39,51</t>
+          <t>-59,55; -39,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 17,28</t>
+          <t>-0,96; 17,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 1,63</t>
+          <t>-15,06; 0,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,89; -34,69</t>
+          <t>-50,93; -34,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 7,52</t>
+          <t>-5,42; 7,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 10,1</t>
+          <t>-1,36; 10,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,94; -10,92</t>
+          <t>-38,71; -9,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 12,64</t>
+          <t>1,25; 12,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 1,38</t>
+          <t>-10,59; 0,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,85; -19,62</t>
+          <t>-32,28; -19,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 8,36</t>
+          <t>-0,29; 8,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 4,25</t>
+          <t>-4,57; 3,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-38,63; -16,85</t>
+          <t>-39,22; -16,95</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 15,6</t>
+          <t>-10,11; 15,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 21,08</t>
+          <t>-2,51; 22,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,94; -21,52</t>
+          <t>-74,7; -18,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,54; 19,88</t>
+          <t>1,69; 19,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 2,27</t>
+          <t>-15,28; 1,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,77; -30,59</t>
+          <t>-47,3; -30,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 14,8</t>
+          <t>-0,49; 14,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 7,5</t>
+          <t>-7,55; 6,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,22; -29,08</t>
+          <t>-66,85; -29,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,44</t>
+          <t>-4,82; 6,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,48; -3,39</t>
+          <t>-16,27; -3,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,1; -18,35</t>
+          <t>-29,49; -18,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,52; 12,86</t>
+          <t>2,61; 12,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 8,14</t>
+          <t>-2,84; 8,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,63; -20,42</t>
+          <t>-30,72; -19,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 7,93</t>
+          <t>0,33; 8,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 0,43</t>
+          <t>-7,62; 0,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-28,35; -20,82</t>
+          <t>-28,78; -21,04</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 8,83</t>
+          <t>-6,12; 9,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,88; -4,65</t>
+          <t>-20,24; -4,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-37,59; -24,8</t>
+          <t>-37,35; -24,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,08; 16,69</t>
+          <t>3,12; 16,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 10,5</t>
+          <t>-3,46; 10,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,65; -26,13</t>
+          <t>-37,19; -26,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,34; 10,38</t>
+          <t>0,39; 11,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 0,53</t>
+          <t>-9,39; 0,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,31; -27,11</t>
+          <t>-35,88; -27,56</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,98; 18,33</t>
+          <t>8,07; 18,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,8; 13,32</t>
+          <t>2,39; 13,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-32,08; -19,96</t>
+          <t>-32,61; -20,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,42</t>
+          <t>-2,18; 5,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 2,34</t>
+          <t>-5,89; 2,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,79; -0,56</t>
+          <t>-29,23; -1,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,12</t>
+          <t>3,73; 10,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,41</t>
+          <t>-0,57; 6,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-28,56; -2,64</t>
+          <t>-28,44; -3,78</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>9,66; 23,98</t>
+          <t>9,77; 24,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3,33; 17,22</t>
+          <t>2,87; 18,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,62; -25,8</t>
+          <t>-39,04; -26,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 5,93</t>
+          <t>-2,3; 5,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 2,58</t>
+          <t>-6,33; 2,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-30,71; -0,61</t>
+          <t>-31,11; -1,61</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,93</t>
+          <t>4,2; 11,82</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,48</t>
+          <t>-0,63; 7,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-32,46; -2,98</t>
+          <t>-32,18; -4,33</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 7,2</t>
+          <t>-2,14; 7,13</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,22</t>
+          <t>-3,7; 5,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -14,86</t>
+          <t>-26,33; -15,51</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,98</t>
+          <t>-1,22; 4,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,27</t>
+          <t>-2,09; 4,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-22,82; -15,42</t>
+          <t>-23,16; -15,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,36</t>
+          <t>-0,53; 4,33</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,45</t>
+          <t>-1,65; 3,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-22,75; -16,7</t>
+          <t>-23,22; -16,91</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 7,91</t>
+          <t>-2,25; 7,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 5,86</t>
+          <t>-3,84; 6,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,06; -16,28</t>
+          <t>-27,73; -17,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,33</t>
+          <t>-1,24; 5,03</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,57</t>
+          <t>-2,14; 4,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -16,47</t>
+          <t>-23,88; -16,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,68</t>
+          <t>-0,55; 4,66</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,7</t>
+          <t>-1,71; 3,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-23,83; -17,73</t>
+          <t>-24,32; -18,04</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,89</t>
+          <t>5,26; 10,26</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,46</t>
+          <t>1,55; 6,72</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -6,13</t>
+          <t>-17,65; -5,95</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,82</t>
+          <t>3,25; 7,79</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,34</t>
+          <t>-2,55; 2,12</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-19,94; -6,5</t>
+          <t>-19,91; -6,66</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,06</t>
+          <t>4,83; 8,23</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,68</t>
+          <t>0,24; 3,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -8,35</t>
+          <t>-16,75; -7,64</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>10,08; 21,02</t>
+          <t>10,68; 21,92</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,8</t>
+          <t>3,11; 14,7</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-40,43; -12,86</t>
+          <t>-36,69; -12,61</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,4</t>
+          <t>5,0; 12,48</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,72</t>
+          <t>-3,92; 3,37</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-31,18; -10,23</t>
+          <t>-31,03; -10,23</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>8,08; 14,57</t>
+          <t>8,45; 14,83</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,67</t>
+          <t>0,41; 6,73</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-30,42; -14,87</t>
+          <t>-29,91; -13,73</t>
         </is>
       </c>
     </row>
